--- a/data/drivers.xlsx
+++ b/data/drivers.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SW developement\My SW Apps\wasla\api\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74CE3F-72CC-4DEF-B875-FDDABFB0E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drivers!$A$1:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drivers!$A$1:$F$88</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>الحدباء</t>
   </si>
@@ -410,13 +404,16 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -438,6 +435,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -485,7 +487,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,11 +504,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,28 +723,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89:D224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="8.5546875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="21.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>128</v>
       </c>
@@ -750,13 +755,16 @@
         <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>41</v>
@@ -764,14 +772,17 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
+        <v>7707434625</v>
+      </c>
+      <c r="E2" s="4">
         <v>43.198352399999997</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>36.3081484</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>42</v>
@@ -779,14 +790,17 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
+        <v>7507641852</v>
+      </c>
+      <c r="E3" s="4">
         <v>43.196081300000003</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>36.378719400000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>43</v>
@@ -794,14 +808,17 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
+        <v>7718319790</v>
+      </c>
+      <c r="E4" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>44</v>
@@ -809,14 +826,17 @@
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
+        <v>7722890920</v>
+      </c>
+      <c r="E5" s="4">
         <v>43.1899832</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>36.375637900000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
@@ -824,14 +844,17 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
+        <v>7725442203</v>
+      </c>
+      <c r="E6" s="4">
         <v>43.202713099999997</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>36.3566723</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>124</v>
@@ -839,14 +862,17 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
+        <v>7510104842</v>
+      </c>
+      <c r="E7" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>46</v>
@@ -854,14 +880,17 @@
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
+        <v>7710108654</v>
+      </c>
+      <c r="E8" s="4">
         <v>43.209728400000003</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>36.384178400000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>47</v>
@@ -869,14 +898,17 @@
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
+        <v>7740871688</v>
+      </c>
+      <c r="E9" s="4">
         <v>43.183527599999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>36.331395200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>125</v>
@@ -884,14 +916,17 @@
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
+        <v>7740907632</v>
+      </c>
+      <c r="E10" s="4">
         <v>43.201552100000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>36.326969800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>48</v>
@@ -899,14 +934,17 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
+        <v>7739012355</v>
+      </c>
+      <c r="E11" s="4">
         <v>43.193328100000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>36.385738699999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>49</v>
@@ -914,14 +952,17 @@
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
+        <v>7740953201</v>
+      </c>
+      <c r="E12" s="4">
         <v>43.220714800000003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>36.367800299999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>126</v>
@@ -929,14 +970,17 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
+        <v>7708368808</v>
+      </c>
+      <c r="E13" s="4">
         <v>43.202713099999997</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>36.3566723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>127</v>
@@ -944,14 +988,17 @@
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
+        <v>7722117706</v>
+      </c>
+      <c r="E14" s="4">
         <v>43.178755199999998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>36.307664199999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>50</v>
@@ -959,14 +1006,17 @@
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
+        <v>7503202022</v>
+      </c>
+      <c r="E15" s="4">
         <v>43.209728400000003</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>36.384178400000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>51</v>
@@ -974,14 +1024,17 @@
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
+        <v>7715560986</v>
+      </c>
+      <c r="E16" s="4">
         <v>43.197697599999998</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>36.296885199999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>52</v>
@@ -989,14 +1042,17 @@
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
+        <v>7728216615</v>
+      </c>
+      <c r="E17" s="4">
         <v>43.168295000000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>36.376922700000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>53</v>
@@ -1004,14 +1060,17 @@
       <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
+        <v>7502531322</v>
+      </c>
+      <c r="E18" s="4">
         <v>43.197697599999998</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>36.296885199999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>54</v>
@@ -1019,14 +1078,17 @@
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
+        <v>7510287852</v>
+      </c>
+      <c r="E19" s="4">
         <v>43.183527599999998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>36.331395200000003</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -1034,14 +1096,17 @@
       <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
+        <v>7718997971</v>
+      </c>
+      <c r="E20" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>56</v>
@@ -1049,14 +1114,17 @@
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
+        <v>7719708640</v>
+      </c>
+      <c r="E21" s="4">
         <v>43.090187851416701</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>36.410085808590999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>57</v>
@@ -1064,14 +1132,17 @@
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
+        <v>7737280904</v>
+      </c>
+      <c r="E22" s="4">
         <v>43.209728400000003</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>36.384178400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -1079,14 +1150,17 @@
       <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
+        <v>7517740923</v>
+      </c>
+      <c r="E23" s="4">
         <v>43.197697599999998</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>36.296885199999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>59</v>
@@ -1094,14 +1168,17 @@
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
+        <v>7519469067</v>
+      </c>
+      <c r="E24" s="4">
         <v>43.2194273</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>36.358123800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>60</v>
@@ -1109,14 +1186,17 @@
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
+        <v>7710804016</v>
+      </c>
+      <c r="E25" s="4">
         <v>43.183527599999998</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>36.331395200000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>61</v>
@@ -1124,14 +1204,17 @@
       <c r="C26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
+        <v>7508501101</v>
+      </c>
+      <c r="E26" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>62</v>
@@ -1139,14 +1222,17 @@
       <c r="C27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
+        <v>7740907632</v>
+      </c>
+      <c r="E27" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>63</v>
@@ -1154,14 +1240,17 @@
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
+        <v>7710346924</v>
+      </c>
+      <c r="E28" s="4">
         <v>43.1212795</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>36.400067</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>64</v>
@@ -1169,14 +1258,17 @@
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
+        <v>7710346924</v>
+      </c>
+      <c r="E29" s="4">
         <v>43.201552100000001</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>36.326969800000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>65</v>
@@ -1184,14 +1276,17 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
+        <v>7710346924</v>
+      </c>
+      <c r="E30" s="4">
         <v>43.183527599999998</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>36.331395200000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>66</v>
@@ -1199,14 +1294,17 @@
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
+        <v>7710346924</v>
+      </c>
+      <c r="E31" s="4">
         <v>43.1573493</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>36.343832999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>67</v>
@@ -1214,14 +1312,17 @@
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
+        <v>7508817503</v>
+      </c>
+      <c r="E32" s="4">
         <v>43.1212795</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>36.400067</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>68</v>
@@ -1229,14 +1330,17 @@
       <c r="C33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
+        <v>77039012353</v>
+      </c>
+      <c r="E33" s="4">
         <v>43.1212795</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>36.400067</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>69</v>
@@ -1244,14 +1348,17 @@
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
+        <v>7705251964</v>
+      </c>
+      <c r="E34" s="4">
         <v>43.134963200000001</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>36.367218399999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>70</v>
@@ -1259,14 +1366,17 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
+        <v>7725296838</v>
+      </c>
+      <c r="E35" s="4">
         <v>43.165519000000003</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>36.392924499999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>71</v>
@@ -1274,14 +1384,17 @@
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
+        <v>7718219497</v>
+      </c>
+      <c r="E36" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>72</v>
@@ -1289,14 +1402,17 @@
       <c r="C37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
+        <v>7501601653</v>
+      </c>
+      <c r="E37" s="4">
         <v>43.184555961933</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>36.391775592036801</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>73</v>
@@ -1304,14 +1420,17 @@
       <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
+        <v>7518948644</v>
+      </c>
+      <c r="E38" s="4">
         <v>43.198352399999997</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>36.3081484</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>74</v>
@@ -1319,14 +1438,17 @@
       <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
+        <v>7704157449</v>
+      </c>
+      <c r="E39" s="4">
         <v>43.213333300000002</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>36.353077800000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>75</v>
@@ -1334,14 +1456,17 @@
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
+        <v>7704157449</v>
+      </c>
+      <c r="E40" s="4">
         <v>43.1615708</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>36.383803999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>76</v>
@@ -1349,14 +1474,17 @@
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
+        <v>780885015</v>
+      </c>
+      <c r="E41" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>77</v>
@@ -1364,14 +1492,17 @@
       <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
+        <v>780885015</v>
+      </c>
+      <c r="E42" s="4">
         <v>43.183527599999998</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>36.331395200000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>78</v>
@@ -1379,14 +1510,17 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
+        <v>7716349500</v>
+      </c>
+      <c r="E43" s="4">
         <v>43.165519000000003</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>36.392924499999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>79</v>
@@ -1394,14 +1528,17 @@
       <c r="C44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
+        <v>7716891381</v>
+      </c>
+      <c r="E44" s="4">
         <v>43.196081300000003</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>36.378719400000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>80</v>
@@ -1409,14 +1546,17 @@
       <c r="C45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
+        <v>7721280002</v>
+      </c>
+      <c r="E45" s="4">
         <v>43.2194273</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>36.358123800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>81</v>
@@ -1424,14 +1564,17 @@
       <c r="C46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
+        <v>7736996081</v>
+      </c>
+      <c r="E46" s="4">
         <v>43.090187851416701</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>36.410085808590999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>82</v>
@@ -1439,14 +1582,17 @@
       <c r="C47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
+        <v>7706298840</v>
+      </c>
+      <c r="E47" s="4">
         <v>43.178486100000001</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>36.357087</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>83</v>
@@ -1454,14 +1600,17 @@
       <c r="C48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
+        <v>7515104587</v>
+      </c>
+      <c r="E48" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -1469,14 +1618,17 @@
       <c r="C49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="6">
+        <v>770311599</v>
+      </c>
+      <c r="E49" s="4">
         <v>43.090187851416701</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>36.410085808590999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>85</v>
@@ -1484,14 +1636,17 @@
       <c r="C50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
+        <v>7515321062</v>
+      </c>
+      <c r="E50" s="4">
         <v>43.196081300000003</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>36.378719400000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>86</v>
@@ -1499,14 +1654,17 @@
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="6">
+        <v>7731662591</v>
+      </c>
+      <c r="E51" s="4">
         <v>43.154876000000002</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>36.389055300000003</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>87</v>
@@ -1514,14 +1672,17 @@
       <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
+        <v>7710125712</v>
+      </c>
+      <c r="E52" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>88</v>
@@ -1529,14 +1690,17 @@
       <c r="C53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="6">
+        <v>7717999373</v>
+      </c>
+      <c r="E53" s="4">
         <v>43.1573493</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>36.343832999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>89</v>
@@ -1544,14 +1708,17 @@
       <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="6">
+        <v>7717999373</v>
+      </c>
+      <c r="E54" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>90</v>
@@ -1559,14 +1726,17 @@
       <c r="C55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="6">
+        <v>7717119018</v>
+      </c>
+      <c r="E55" s="4">
         <v>43.209814299999998</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>36.373052700000002</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
@@ -1574,14 +1744,17 @@
       <c r="C56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="6">
+        <v>7717119018</v>
+      </c>
+      <c r="E56" s="4">
         <v>43.201825300000003</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>36.391611699999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>92</v>
@@ -1589,14 +1762,17 @@
       <c r="C57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="6">
+        <v>7511798440</v>
+      </c>
+      <c r="E57" s="4">
         <v>43.196081300000003</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>36.378719400000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -1606,14 +1782,17 @@
       <c r="C58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="6">
+        <v>7737053457</v>
+      </c>
+      <c r="E58" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -1623,14 +1802,17 @@
       <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="6">
+        <v>7718500573</v>
+      </c>
+      <c r="E59" s="4">
         <v>43.154876000000002</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>36.389055300000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -1640,14 +1822,17 @@
       <c r="C60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="6">
+        <v>7701602414</v>
+      </c>
+      <c r="E60" s="4">
         <v>43.185946700000002</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <v>36.410195299999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>4</v>
       </c>
@@ -1657,14 +1842,17 @@
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="6">
+        <v>7722994420</v>
+      </c>
+      <c r="E61" s="4">
         <v>43.191861099999997</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>36.311492299999998</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -1674,14 +1862,17 @@
       <c r="C62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="6">
+        <v>7724420032</v>
+      </c>
+      <c r="E62" s="4">
         <v>43.184860399999998</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>36.363169599999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>6</v>
       </c>
@@ -1691,14 +1882,17 @@
       <c r="C63" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="6">
+        <v>7717266931</v>
+      </c>
+      <c r="E63" s="4">
         <v>43.224513700000003</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>36.344119499999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>7</v>
       </c>
@@ -1708,14 +1902,17 @@
       <c r="C64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="6">
+        <v>7703335815</v>
+      </c>
+      <c r="E64" s="4">
         <v>43.224513700000003</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>36.344119499999998</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>8</v>
       </c>
@@ -1725,14 +1922,17 @@
       <c r="C65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="6">
+        <v>7721771245</v>
+      </c>
+      <c r="E65" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>9</v>
       </c>
@@ -1742,14 +1942,17 @@
       <c r="C66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="6">
+        <v>7516271841</v>
+      </c>
+      <c r="E66" s="4">
         <v>43.191861099999997</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>36.311492299999998</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>10</v>
       </c>
@@ -1759,14 +1962,17 @@
       <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="6">
+        <v>7715507452</v>
+      </c>
+      <c r="E67" s="4">
         <v>43.165519000000003</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>36.392924499999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>11</v>
       </c>
@@ -1776,14 +1982,17 @@
       <c r="C68" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="6">
+        <v>7703183855</v>
+      </c>
+      <c r="E68" s="4">
         <v>43.178755199999998</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>36.307664199999998</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>12</v>
       </c>
@@ -1793,14 +2002,17 @@
       <c r="C69" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="6">
+        <v>7703058222</v>
+      </c>
+      <c r="E69" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>13</v>
       </c>
@@ -1810,14 +2022,17 @@
       <c r="C70" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="6">
+        <v>7724633088</v>
+      </c>
+      <c r="E70" s="4">
         <v>43.214604836539799</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <v>36.345478166262801</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>14</v>
       </c>
@@ -1827,16 +2042,19 @@
       <c r="C71" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="6">
+        <v>7708672559</v>
+      </c>
+      <c r="E71" s="4">
         <v>43.084862950799099</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>36.464092800392301</v>
       </c>
-      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>15</v>
       </c>
@@ -1846,14 +2064,17 @@
       <c r="C72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="6">
+        <v>7731664433</v>
+      </c>
+      <c r="E72" s="4">
         <v>43.196081300000003</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
         <v>36.378719400000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>16</v>
       </c>
@@ -1863,14 +2084,17 @@
       <c r="C73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="6">
+        <v>7723133615</v>
+      </c>
+      <c r="E73" s="4">
         <v>43.177691099999997</v>
       </c>
-      <c r="E73" s="4">
+      <c r="F73" s="4">
         <v>36.322405799999999</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>17</v>
       </c>
@@ -1880,14 +2104,17 @@
       <c r="C74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="6">
+        <v>7734130359</v>
+      </c>
+      <c r="E74" s="4">
         <v>43.178755199999998</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>36.307664199999998</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>18</v>
       </c>
@@ -1897,14 +2124,17 @@
       <c r="C75" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="6">
+        <v>7740869101</v>
+      </c>
+      <c r="E75" s="4">
         <v>43.178486100000001</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>36.357087</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>19</v>
       </c>
@@ -1914,14 +2144,17 @@
       <c r="C76" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="6">
+        <v>7508274560</v>
+      </c>
+      <c r="E76" s="4">
         <v>43.090187851416701</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76" s="4">
         <v>36.410085808590999</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>20</v>
       </c>
@@ -1931,14 +2164,17 @@
       <c r="C77" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="6">
+        <v>7707228823</v>
+      </c>
+      <c r="E77" s="4">
         <v>43.201552100000001</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>36.326969800000001</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>21</v>
       </c>
@@ -1948,14 +2184,17 @@
       <c r="C78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="6">
+        <v>7737116189</v>
+      </c>
+      <c r="E78" s="4">
         <v>43.198352399999997</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>36.3081484</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>22</v>
       </c>
@@ -1965,14 +2204,17 @@
       <c r="C79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="6">
+        <v>7729507106</v>
+      </c>
+      <c r="E79" s="4">
         <v>43.183527599999998</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>36.331395200000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>23</v>
       </c>
@@ -1982,14 +2224,17 @@
       <c r="C80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="6">
+        <v>7722890920</v>
+      </c>
+      <c r="E80" s="4">
         <v>43.210626900000001</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>36.363453</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>24</v>
       </c>
@@ -1999,14 +2244,17 @@
       <c r="C81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
+        <v>7502051109</v>
+      </c>
+      <c r="E81" s="4">
         <v>43.184860399999998</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>36.363169599999999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>25</v>
       </c>
@@ -2016,14 +2264,17 @@
       <c r="C82" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
+        <v>7736996081</v>
+      </c>
+      <c r="E82" s="4">
         <v>43.184860399999998</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>36.363169599999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>26</v>
       </c>
@@ -2033,14 +2284,17 @@
       <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="6">
+        <v>7515104587</v>
+      </c>
+      <c r="E83" s="4">
         <v>43.203778200000002</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>36.412306600000001</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>27</v>
       </c>
@@ -2050,14 +2304,17 @@
       <c r="C84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="6">
+        <v>7706298840</v>
+      </c>
+      <c r="E84" s="4">
         <v>43.184860399999998</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>36.363169599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>28</v>
       </c>
@@ -2067,14 +2324,17 @@
       <c r="C85" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="6">
+        <v>7717218854</v>
+      </c>
+      <c r="E85" s="4">
         <v>43.1888246638974</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85" s="4">
         <v>36.388053652342101</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>29</v>
       </c>
@@ -2084,14 +2344,17 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="6">
+        <v>7518739668</v>
+      </c>
+      <c r="E86" s="4">
         <v>43.200309900000001</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>36.3648284</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>30</v>
       </c>
@@ -2101,14 +2364,17 @@
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="6">
+        <v>7515292487</v>
+      </c>
+      <c r="E87" s="4">
         <v>43.220714800000003</v>
       </c>
-      <c r="E87" s="4">
+      <c r="F87" s="4">
         <v>36.367800299999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>31</v>
       </c>
@@ -2118,17 +2384,20 @@
       <c r="C88" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="6">
+        <v>7707425289</v>
+      </c>
+      <c r="E88" s="4">
         <v>43.149726100000002</v>
       </c>
-      <c r="E88" s="4">
+      <c r="F88" s="4">
         <v>36.395688100000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F88"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C88" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C88">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
